--- a/Result/Q0_1_bcps_accept_rate_comparison.xlsx
+++ b/Result/Q0_1_bcps_accept_rate_comparison.xlsx
@@ -475,22 +475,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575</v>
+        <v>0.5336923809523814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.5246033821733825</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>0.519552780663781</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5974999999999999</v>
+        <v>0.5218752366946781</v>
       </c>
       <c r="F2" t="n">
-        <v>0.615</v>
+        <v>0.5209606031746037</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5820000000000001</v>
+        <v>0.5204823333333334</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9423415574621458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9883720930232558</v>
+        <v>0.942789415329521</v>
       </c>
       <c r="D3" t="n">
-        <v>0.98</v>
+        <v>0.9414977918196666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.992</v>
+        <v>0.9422518802945162</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9883426216873183</v>
+        <v>0.9415787843453918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9867933299164452</v>
+        <v>0.9414654870014154</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.698076923076923</v>
+        <v>0.7228560789646089</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8846469622331692</v>
+        <v>0.711349368708996</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7418981481481481</v>
+        <v>0.7058005937073939</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7444908001711597</v>
+        <v>0.7093152496206329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7726643349215502</v>
+        <v>0.7069429832163127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7544419350495146</v>
+        <v>0.7074706309055924</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6922201610281987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6322905620360552</v>
+        <v>0.6840576612981994</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7369230769230769</v>
+        <v>0.6757374937146197</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7593679905000659</v>
+        <v>0.6796005202480599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7235558559087971</v>
+        <v>0.6772981595382641</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7280516567200681</v>
+        <v>0.6783584939420063</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6541666666666667</v>
+        <v>0.6254725551953501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6485411140583555</v>
+        <v>0.6122448152976399</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6218615494978479</v>
+        <v>0.6162004806333298</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5704885057471264</v>
+        <v>0.6124920029746153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6321551190409186</v>
+        <v>0.6121683232283076</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5918383121175291</v>
+        <v>0.6118726154747519</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +590,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5073529411764706</v>
+        <v>0.6503664847911516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4924242424242424</v>
+        <v>0.6314704675259866</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5126901455026455</v>
+        <v>0.6308624146196009</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5521674876847291</v>
+        <v>0.6309191963548406</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5243284493284494</v>
+        <v>0.6276449107772274</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5415110482005105</v>
+        <v>0.6270707843465791</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +613,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8479020979020979</v>
+        <v>0.8917809858210247</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9553571428571428</v>
+        <v>0.888903514797088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9711798839458414</v>
+        <v>0.8892033535960856</v>
       </c>
       <c r="E8" t="n">
-        <v>0.941066066066066</v>
+        <v>0.8873772438213621</v>
       </c>
       <c r="F8" t="n">
-        <v>0.939799331103679</v>
+        <v>0.8863219593113496</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9516806722689075</v>
+        <v>0.8870094727656413</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.9332058938447173</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.9301425442239368</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9303999367220929</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.9303429377293169</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.9299285874670077</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.930038082599511</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +659,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1580882352941176</v>
+        <v>0.1667000675842459</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212962962962963</v>
+        <v>0.1296013445118074</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1091448884722059</v>
+        <v>0.1219538445205427</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1470110544217687</v>
+        <v>0.1245317501416366</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1380694481399148</v>
+        <v>0.123755663934166</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1368807678110004</v>
+        <v>0.1225556229374693</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3611111111111112</v>
+        <v>0.7250113804713808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6995798319327731</v>
+        <v>0.7179924152749679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6950354609929078</v>
+        <v>0.7033859096009307</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6337514686571291</v>
+        <v>0.7000776512938002</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7097315436241611</v>
+        <v>0.7019450741719591</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6557915979515667</v>
+        <v>0.7007696978894299</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4595959595959596</v>
+        <v>0.5056622255032549</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2772366522366522</v>
+        <v>0.5519436339192703</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3590316205533597</v>
+        <v>0.5679328746892834</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3535208810923951</v>
+        <v>0.5703606808199194</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3525061960677638</v>
+        <v>0.5730924221381343</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4022676478029856</v>
+        <v>0.5739451480073641</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +728,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.5034662100704045</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5793103448275863</v>
+        <v>0.53233669147781</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5959883953581433</v>
+        <v>0.5436516709856393</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6211143695014663</v>
+        <v>0.5532732307128291</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6153946862393729</v>
+        <v>0.5563381033883068</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6159639578374703</v>
+        <v>0.5590329891352136</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5883838383838383</v>
+        <v>0.558341686945665</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4827441077441077</v>
+        <v>0.613999344812491</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4673825772782015</v>
+        <v>0.638195834455811</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5737876254180602</v>
+        <v>0.6380007090271463</v>
       </c>
       <c r="F14" t="n">
-        <v>0.541898293241813</v>
+        <v>0.6436598812325197</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5443055950014201</v>
+        <v>0.6432098581864111</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.5785907234686148</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8258358662613982</v>
+        <v>0.5732271031726829</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8194444444444444</v>
+        <v>0.5764059069534953</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8262965425531915</v>
+        <v>0.5818492877588731</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8201061228974573</v>
+        <v>0.5811621571134961</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8115650100401606</v>
+        <v>0.5814226495206076</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.8832974942867585</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.912053319153974</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9116891904776284</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.911522510552045</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.910636867623287</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.9132615908931191</v>
       </c>
     </row>
     <row r="17">
@@ -820,22 +820,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9141920636077601</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7199820788530465</v>
+        <v>0.9108718759802908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7544642857142857</v>
+        <v>0.9161924126483881</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7476415094339622</v>
+        <v>0.9168121755326207</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7285336743393009</v>
+        <v>0.9144052852956047</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7283966690236399</v>
+        <v>0.9150663175947672</v>
       </c>
     </row>
     <row r="18">
@@ -843,22 +843,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.3050640814080004</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2862068965517242</v>
+        <v>0.2847352577157717</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3050073099415205</v>
+        <v>0.2852282569521808</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2925499231950845</v>
+        <v>0.2818018058138088</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3260501607047199</v>
+        <v>0.2817857901513648</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3101219798264133</v>
+        <v>0.2797210713027446</v>
       </c>
     </row>
     <row r="19">
@@ -866,22 +866,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5917508417508417</v>
+        <v>0.5381136988664924</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6297619047619047</v>
+        <v>0.5239924017910174</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6987762237762238</v>
+        <v>0.529183613628224</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6827032674772037</v>
+        <v>0.5336759836534996</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6649341292713051</v>
+        <v>0.5260744495354349</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6374611522830504</v>
+        <v>0.527920997028982</v>
       </c>
     </row>
     <row r="20">
@@ -889,22 +889,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5961538461538461</v>
+        <v>0.5668486665591167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.5513984652466425</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4504914452129596</v>
+        <v>0.5623903087905312</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4848659003831417</v>
+        <v>0.5654776169229178</v>
       </c>
       <c r="F20" t="n">
-        <v>0.502050959054918</v>
+        <v>0.5657742884844373</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4919666247065628</v>
+        <v>0.5627725423375898</v>
       </c>
     </row>
     <row r="21">
@@ -912,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.8297563775589158</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.8269506103000281</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9784075573549258</v>
+        <v>0.8392196496629598</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0.8411775924591661</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9897178660297653</v>
+        <v>0.8419109395343413</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9923231391914488</v>
+        <v>0.8413367505880704</v>
       </c>
     </row>
     <row r="22">
@@ -935,22 +935,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.9183742727860371</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.9206970442401987</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.9290162929110319</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0.9305431983978918</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.9302870284756759</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.9306821075596836</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4467592592592592</v>
+        <v>0.3178319775638963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3402225755166932</v>
+        <v>0.305166639617357</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3587875939849624</v>
+        <v>0.3040192236162784</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3864552686062984</v>
+        <v>0.3048294480062952</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3911405968032998</v>
+        <v>0.3050795838114739</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3769103504094459</v>
+        <v>0.3071240190358276</v>
       </c>
     </row>
     <row r="24">
@@ -981,22 +981,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.9450379046879049</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.9448497978790289</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.9463482296338802</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0.9456202517193382</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.944393219554873</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9983579638752053</v>
+        <v>0.9433477307802616</v>
       </c>
     </row>
     <row r="25">
@@ -1004,22 +1004,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6369047619047619</v>
+        <v>0.8448185568570866</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6177083333333333</v>
+        <v>0.8440758623612037</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6703703703703704</v>
+        <v>0.8524155898818874</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6454054887449893</v>
+        <v>0.8559172662548731</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6606260738831615</v>
+        <v>0.8535984520581704</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6411997412687125</v>
+        <v>0.8524154480234161</v>
       </c>
     </row>
     <row r="26">
@@ -1027,22 +1027,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2640151515151515</v>
+        <v>0.3215708451906715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2817540322580645</v>
+        <v>0.3174419551833985</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3404287439613527</v>
+        <v>0.3166148279520348</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3048490488006617</v>
+        <v>0.3167616127127215</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3000105270866517</v>
+        <v>0.3164673086210377</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2962456468887574</v>
+        <v>0.3167808036338107</v>
       </c>
     </row>
     <row r="27">
@@ -1050,22 +1050,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.5780306978533443</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6582010582010582</v>
+        <v>0.5690720764389383</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7569474598349979</v>
+        <v>0.5729677243096507</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6815487303958178</v>
+        <v>0.5691443484536959</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7212394375982423</v>
+        <v>0.5694945958517954</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7149670872403375</v>
+        <v>0.5686586828084722</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8</v>
+        <v>0.6472803854815348</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6846466541588493</v>
+        <v>0.6313829430415676</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6515151515151515</v>
+        <v>0.6314382160677702</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6945477707006369</v>
+        <v>0.630304946372663</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6832371106337272</v>
+        <v>0.6262421465290344</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6962926710607096</v>
+        <v>0.6264997091220014</v>
       </c>
     </row>
     <row r="29">
@@ -1096,22 +1096,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.9039431438702339</v>
       </c>
       <c r="C29" t="n">
-        <v>0.953125</v>
+        <v>0.8964751952630013</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9245283018867925</v>
+        <v>0.89610543194985</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9387755102040816</v>
+        <v>0.8966037036427938</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9233870967741935</v>
+        <v>0.8972775152839793</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9222423146473779</v>
+        <v>0.8961348811994685</v>
       </c>
     </row>
     <row r="30">
@@ -1119,22 +1119,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0.9418886005878654</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0.9406142057764441</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.9398409358606581</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0.9390247110072251</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0.9389280287338246</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.938809871161702</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +1142,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3</v>
+        <v>0.2150907320363809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09920634920634921</v>
+        <v>0.1765781106941195</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1152903355435001</v>
+        <v>0.1720038323869034</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1206196450428396</v>
+        <v>0.1747068057674188</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1241496598639456</v>
+        <v>0.1717573941490044</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1409920517716058</v>
+        <v>0.1713252811267935</v>
       </c>
     </row>
     <row r="32">
@@ -1165,22 +1165,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.4084545312675704</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4961067853170189</v>
+        <v>0.3497613992868552</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6607565011820331</v>
+        <v>0.3519068444185454</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5606874328678839</v>
+        <v>0.354750958379577</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6141614123581337</v>
+        <v>0.3579692258037811</v>
       </c>
       <c r="G32" t="n">
-        <v>0.518453238739238</v>
+        <v>0.353764903902398</v>
       </c>
     </row>
     <row r="33">
@@ -1188,22 +1188,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.4351007307067475</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6088516746411483</v>
+        <v>0.474871434112884</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6356944444444445</v>
+        <v>0.4862220401529331</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5991319444444445</v>
+        <v>0.4918083868525403</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5751561390106281</v>
+        <v>0.4921243314488346</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5815068976008667</v>
+        <v>0.4912516804674157</v>
       </c>
     </row>
     <row r="34">
@@ -1211,22 +1211,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.6142823564662024</v>
       </c>
       <c r="C34" t="n">
-        <v>0.59</v>
+        <v>0.6330404911244331</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5410178236397749</v>
+        <v>0.6399990038604507</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6066008445106805</v>
+        <v>0.6542637070187928</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5996966586313883</v>
+        <v>0.655608344719359</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5685487436618658</v>
+        <v>0.6549527306767593</v>
       </c>
     </row>
     <row r="35">
@@ -1234,22 +1234,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0.7333470076562285</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.7813366339987863</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9009196271101033</v>
+        <v>0.7927003990044482</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9611921586505585</v>
+        <v>0.8019425169335463</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9659552281853881</v>
+        <v>0.8068107998991523</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9554975549013303</v>
+        <v>0.8060371658011052</v>
       </c>
     </row>
     <row r="36">
@@ -1257,22 +1257,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3214285714285714</v>
+        <v>0.437620430941219</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2770012315270936</v>
+        <v>0.4193572548429069</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2905922800437568</v>
+        <v>0.4278081003521785</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2660214579659024</v>
+        <v>0.4324982391102751</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2942066693182128</v>
+        <v>0.4332322667567375</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2934851159111362</v>
+        <v>0.4325392927487755</v>
       </c>
     </row>
     <row r="37">
@@ -1280,22 +1280,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0.8812068953541011</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.8918643459652021</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9943181818181819</v>
+        <v>0.8912017964494792</v>
       </c>
       <c r="E37" t="n">
-        <v>0.995049504950495</v>
+        <v>0.8976071961024817</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9912023460410557</v>
+        <v>0.8973751442887538</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9817073170731707</v>
+        <v>0.8967149886410243</v>
       </c>
     </row>
     <row r="38">
@@ -1303,22 +1303,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0.8835093895810072</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0.8940613827718527</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.8862147125636534</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0.8903470157433934</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0.8935172345183283</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.8936288451893645</v>
       </c>
     </row>
     <row r="39">
@@ -1326,22 +1326,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3737373737373737</v>
+        <v>0.2712934050244035</v>
       </c>
       <c r="C39" t="n">
-        <v>0.368993993993994</v>
+        <v>0.2524790339333615</v>
       </c>
       <c r="D39" t="n">
-        <v>0.358746408045977</v>
+        <v>0.2574639825962045</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3218115942028985</v>
+        <v>0.2574604793335079</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3508479109827208</v>
+        <v>0.2599400305622552</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3347854676968601</v>
+        <v>0.2588195172134053</v>
       </c>
     </row>
     <row r="40">
@@ -1349,22 +1349,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2983333333333333</v>
+        <v>0.5683529489954487</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3134469696969697</v>
+        <v>0.5587104810820317</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3272727272727273</v>
+        <v>0.5483590798113297</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3355890603085554</v>
+        <v>0.5527343941995491</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3345790440288048</v>
+        <v>0.5544826871642378</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3214431552213535</v>
+        <v>0.5552318580436101</v>
       </c>
     </row>
     <row r="41">
@@ -1372,22 +1372,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8277777777777777</v>
+        <v>0.594672205564187</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5059386973180077</v>
+        <v>0.5862924280501012</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.5865546202996308</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5658101524438158</v>
+        <v>0.5893097977319574</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5852751303945313</v>
+        <v>0.5890992201995375</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5706690969848864</v>
+        <v>0.5865941851473179</v>
       </c>
     </row>
     <row r="42">
@@ -1395,22 +1395,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0.864722653225401</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0.8579348247090072</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.859123980455992</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0.8634107076236728</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9904848836887672</v>
+        <v>0.8610600596056249</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9989669421487604</v>
+        <v>0.8598178447294147</v>
       </c>
     </row>
     <row r="43">
@@ -1418,22 +1418,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0.9371048834934129</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0.9400208099199011</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.9419507215607243</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0.9414491811183737</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.9441501362086242</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.943978663728064</v>
       </c>
     </row>
     <row r="44">
@@ -1441,22 +1441,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2948717948717948</v>
+        <v>0.2068329381937421</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2131465517241379</v>
+        <v>0.1668547903338718</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3139329805996472</v>
+        <v>0.1662059657779021</v>
       </c>
       <c r="E44" t="n">
-        <v>0.28371699669967</v>
+        <v>0.1697680016368361</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3217449874686716</v>
+        <v>0.1710321756998018</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3046253275427019</v>
+        <v>0.1702662865178808</v>
       </c>
     </row>
     <row r="45">
@@ -1464,22 +1464,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9</v>
+        <v>0.8920973626373624</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8769543556745083</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9215686274509804</v>
+        <v>0.8852122935133955</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8901098901098901</v>
+        <v>0.880793774815411</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8849840255591055</v>
+        <v>0.8761638740257558</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8873121869782972</v>
+        <v>0.877021500472011</v>
       </c>
     </row>
     <row r="46">
@@ -1487,22 +1487,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8616071428571428</v>
+        <v>0.6741441113026407</v>
       </c>
       <c r="C46" t="n">
-        <v>0.790920716112532</v>
+        <v>0.6801390035770194</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7209302325581395</v>
+        <v>0.6849362986010487</v>
       </c>
       <c r="E46" t="n">
-        <v>0.749863257213182</v>
+        <v>0.6832895265753238</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7654613712704998</v>
+        <v>0.6873581277268357</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7482380643828412</v>
+        <v>0.6887454701012741</v>
       </c>
     </row>
     <row r="47">
@@ -1510,22 +1510,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3155844155844156</v>
+        <v>0.5264017451782572</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3757928118393234</v>
+        <v>0.5233279655525535</v>
       </c>
       <c r="D47" t="n">
-        <v>0.389953171562367</v>
+        <v>0.5199275149698299</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3293427534353124</v>
+        <v>0.5237588904851072</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3706378418329638</v>
+        <v>0.5265567816543496</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3772745394194343</v>
+        <v>0.5262831594922225</v>
       </c>
     </row>
     <row r="48">
@@ -1533,22 +1533,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.5958056393675125</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.586212909972978</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5730023501762632</v>
+        <v>0.5856482008364817</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6492882023322732</v>
+        <v>0.5897806773664678</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6035611368722846</v>
+        <v>0.5955599974576097</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6150568181818181</v>
+        <v>0.5953049892804728</v>
       </c>
     </row>
     <row r="49">
@@ -1556,22 +1556,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.875</v>
+        <v>0.6164488860222453</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6901515151515152</v>
+        <v>0.606883005499915</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7180851063829787</v>
+        <v>0.6124472011264886</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7078296703296704</v>
+        <v>0.6081785823023427</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7313484661083964</v>
+        <v>0.6085444465520539</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7105377211860354</v>
+        <v>0.6084339883727135</v>
       </c>
     </row>
     <row r="50">
@@ -1579,22 +1579,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0.9168290736897542</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0.9109238304854951</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.914952181593441</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0.9145627377619016</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.9135772186052471</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.9134504342466653</v>
       </c>
     </row>
     <row r="51">
@@ -1602,22 +1602,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9302755007737359</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.9271717496434674</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5910493827160493</v>
+        <v>0.9265563760476625</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.9268730376745969</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6260053619302949</v>
+        <v>0.9266216157330903</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6293793793793794</v>
+        <v>0.9264731087984006</v>
       </c>
     </row>
   </sheetData>
